--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1282467.447170783</v>
+        <v>-1285345.274503244</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>208.0869246403622</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.0115801625514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>42.93165166918631</v>
       </c>
       <c r="E4" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.93619078451073</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>28.38068413028099</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>150.3227969010357</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.5507080100541</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>166.664385186464</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.3773460477726</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.6725772032751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>353.1459972433406</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.07554622347736</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>132.6100397066849</v>
       </c>
       <c r="U16" t="n">
-        <v>269.3901163143705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>42.54416032354802</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.637173372437</v>
+        <v>1161.086123514381</v>
       </c>
       <c r="C2" t="n">
-        <v>565.6746564320254</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2255.754101094843</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2255.754101094843</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1924.691213751272</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1924.691213751272</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1551.225455490193</v>
       </c>
       <c r="Y2" t="n">
-        <v>934.637173372437</v>
+        <v>1161.086123514381</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7222632714563</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7222632714563</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="D4" t="n">
-        <v>60.60562385912053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714563</v>
+        <v>97.30828653671426</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2643.678191235888</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2467.500703550058</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2467.500703550058</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2467.500703550058</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.437816206488</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.437816206488</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.972057945408</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1718.448825665084</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4796,19 +4796,19 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2105.048665729206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1947.7144217092</v>
       </c>
       <c r="D11" t="n">
         <v>1591.001293180573</v>
@@ -5045,13 +5045,13 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.918459243566</v>
+        <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.709310922884</v>
+        <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.265981642434</v>
+        <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5276,10 +5276,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3125385470848</v>
+        <v>422.5594898197622</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9429223347665</v>
+        <v>892.189873607444</v>
       </c>
       <c r="L14" t="n">
         <v>1511.709654113219</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.5003763580115</v>
+        <v>869.8694907575983</v>
       </c>
       <c r="C16" t="n">
-        <v>783.5641934301046</v>
+        <v>700.9333078296914</v>
       </c>
       <c r="D16" t="n">
-        <v>633.4475540177689</v>
+        <v>550.8166684173557</v>
       </c>
       <c r="E16" t="n">
-        <v>485.5344604353758</v>
+        <v>402.9035748349626</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5344604353758</v>
+        <v>402.9035748349626</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3202656099546</v>
+        <v>235.6893800095415</v>
       </c>
       <c r="H16" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2178.35127892949</v>
       </c>
       <c r="T16" t="n">
-        <v>2178.35127892949</v>
+        <v>2044.401743872233</v>
       </c>
       <c r="U16" t="n">
-        <v>1906.240050329116</v>
+        <v>2044.401743872233</v>
       </c>
       <c r="V16" t="n">
-        <v>1651.555562123229</v>
+        <v>1789.717255666346</v>
       </c>
       <c r="W16" t="n">
-        <v>1362.138392086269</v>
+        <v>1500.300085629385</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.148841188251</v>
+        <v>1272.310534731368</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.148841188251</v>
+        <v>1051.517955587838</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,16 +5595,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>445.698492807609</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>278.5023935224889</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>136.790562364687</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,16 +5832,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6315,7 +6315,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,19 +6549,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6695,25 +6695,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,16 +6786,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,13 +6935,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,46 +7333,46 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7734,16 +7734,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>206.7033647291997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.78153813744256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8.361395717295551</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.2263584935022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.537044377342397</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.537044377342269</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>84.87195475607695</v>
       </c>
       <c r="U16" t="n">
-        <v>16.7953352340499</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>38.7216759950175</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135636.1012370106</v>
+        <v>135636.1012370107</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
@@ -26323,10 +26323,10 @@
         <v>161312.1256772246</v>
       </c>
       <c r="F2" t="n">
-        <v>161312.1256772245</v>
+        <v>161312.1256772246</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
@@ -26338,10 +26338,10 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26424,31 +26424,31 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670442</v>
       </c>
-      <c r="I4" t="n">
-        <v>5067.592601670445</v>
-      </c>
       <c r="J4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>100905.9587784758</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-656714.8562865058</v>
+        <v>-657072.0094457041</v>
       </c>
       <c r="C6" t="n">
         <v>-119715.2300182844</v>
@@ -26528,40 +26528,40 @@
         <v>-119715.2300182843</v>
       </c>
       <c r="E6" t="n">
-        <v>-881745.1815065668</v>
+        <v>-881781.3843602622</v>
       </c>
       <c r="F6" t="n">
-        <v>54646.22801203052</v>
+        <v>54610.02515833515</v>
       </c>
       <c r="G6" t="n">
-        <v>47515.29052163307</v>
+        <v>47480.55259619746</v>
       </c>
       <c r="H6" t="n">
-        <v>55239.19751242366</v>
+        <v>55204.45958698794</v>
       </c>
       <c r="I6" t="n">
-        <v>55239.19751242361</v>
+        <v>55204.45958698791</v>
       </c>
       <c r="J6" t="n">
-        <v>-121184.0216801693</v>
+        <v>-121218.7596056051</v>
       </c>
       <c r="K6" t="n">
-        <v>55239.19751242369</v>
+        <v>55204.45958698797</v>
       </c>
       <c r="L6" t="n">
-        <v>28558.06826054578</v>
+        <v>28558.06826054561</v>
       </c>
       <c r="M6" t="n">
-        <v>-76222.72445388111</v>
+        <v>-76222.72445388103</v>
       </c>
       <c r="N6" t="n">
-        <v>47985.78625417751</v>
+        <v>47985.78625417748</v>
       </c>
       <c r="O6" t="n">
-        <v>47985.78625417736</v>
+        <v>47985.78625417745</v>
       </c>
       <c r="P6" t="n">
-        <v>47985.78625417745</v>
+        <v>47985.78625417739</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>117.2194080351574</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.14977810741868</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>105.683821349026</v>
       </c>
       <c r="E4" t="n">
-        <v>139.8379470282007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.542211790300982</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>168.1320336449676</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.2845078498768</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>101.8148464227923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.18313365342647</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>198.6085065845436</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>5.768192902246284</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>62.8504211333159</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>394.0223077997508</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>697.0074482175627</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>677.7372574190229</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532619</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>338.6542681503486</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>338.1920576279222</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>332.0634613856469</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
         <v>728.287436302058</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>565.6657361342294</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>535.1410129745784</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312436</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>196.0580237059041</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>196.0580237059039</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
